--- a/MainProject/CommonFiles/TestimonialData.xlsx
+++ b/MainProject/CommonFiles/TestimonialData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftwareTestingICTAK\Selenium\githubClone\ictk\MainProject\CommonFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA73CD3-C127-4CD3-9EC7-EE6DDB7FB077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519278F0-1A0F-4A6F-BC5B-3924781DCFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="3585" windowWidth="18000" windowHeight="10433" xr2:uid="{8AB6A6C6-8931-4083-958D-BEF74CFF3B21}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{8AB6A6C6-8931-4083-958D-BEF74CFF3B21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,14 +50,13 @@
     <t>StudentName Test</t>
   </si>
   <si>
-    <t>testimonial test is beautiful,
-Testimonial test is wonderful.</t>
-  </si>
-  <si>
     <t>Umberlla Corp</t>
   </si>
   <si>
     <t>CERTIFIED SPECIALIST IN DIGITAL MARKETING</t>
+  </si>
+  <si>
+    <t>testimonial test is beautiful, Testimonial test is wonderful.</t>
   </si>
 </sst>
 </file>
@@ -415,13 +414,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
+    <col min="3" max="3" width="38.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -438,18 +437,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
